--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_http\class_unittest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_http\python_request_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E6817D-A303-4604-8310-6688271DF6E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49164E65-C13F-4364-A10D-E1991EC4D22E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>login_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,14 @@
   </si>
   <si>
     <t>e10adc3949ba59abbe56e057f20f883e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135111111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e10adc3949ba59abbe56e057f20f883</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,8 +87,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -364,92 +378,79 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="2" width="38.625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>13011111111</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>13111111111</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>13211111111</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>13311111111</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>13411111111</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="1">
+        <v>1341111111</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>13511111111</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>13611111111</v>
       </c>
-      <c r="B8" t="s">
-        <v>2</v>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>13711111111</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>13811111111</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
